--- a/Flipkart/FSN Data From Company/Vega Helmets - MRP with NLC 12.03.2021 (1).xlsx
+++ b/Flipkart/FSN Data From Company/Vega Helmets - MRP with NLC 12.03.2021 (1).xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ryder Auto Accessories_Desktop\Pawan\Important\flipkart\studds brand new pricing\12.03.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Flipkart\FSN Data From Company\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4FB7F5-A7CC-4218-8464-724AFD078F0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7335"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VEGA FINAL NLC FLIPKART" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj4Ibh6+7zRVyplGFNtw4HXontQzw=="/>
     </ext>
@@ -3200,7 +3210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3465,26 +3475,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" customWidth="1"/>
+    <col min="3" max="3" width="50.8984375" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3540,7 +3550,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3570,7 +3580,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3640,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3660,7 +3670,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +3760,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3780,7 +3790,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -3810,7 +3820,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3840,7 +3850,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4050,7 +4060,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -4080,7 +4090,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4110,7 +4120,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4140,7 +4150,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -4170,7 +4180,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -4230,7 +4240,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -4260,7 +4270,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -4290,7 +4300,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -4410,7 +4420,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -4470,7 +4480,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -4500,7 +4510,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -4560,7 +4570,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -4620,7 +4630,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
@@ -4650,7 +4660,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -4740,7 +4750,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
@@ -4800,7 +4810,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>101</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
@@ -4950,7 +4960,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>105</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
@@ -5010,7 +5020,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
@@ -5190,7 +5200,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
@@ -5220,7 +5230,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
@@ -5250,7 +5260,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>125</v>
       </c>
@@ -5280,7 +5290,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -5310,7 +5320,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>131</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -5400,7 +5410,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -5460,7 +5470,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>141</v>
       </c>
@@ -5520,7 +5530,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>143</v>
       </c>
@@ -5550,7 +5560,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>147</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>149</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>151</v>
       </c>
@@ -5670,7 +5680,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -5700,7 +5710,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -5760,7 +5770,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -5820,7 +5830,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
@@ -5850,7 +5860,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
@@ -5880,7 +5890,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -5910,7 +5920,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
@@ -5940,7 +5950,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>177</v>
       </c>
@@ -6060,7 +6070,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
@@ -6090,7 +6100,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
@@ -6120,7 +6130,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>183</v>
       </c>
@@ -6150,7 +6160,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>185</v>
       </c>
@@ -6180,7 +6190,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>187</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
@@ -6240,7 +6250,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>191</v>
       </c>
@@ -6270,7 +6280,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>193</v>
       </c>
@@ -6300,7 +6310,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>195</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>197</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>199</v>
       </c>
@@ -6390,7 +6400,7 @@
         <v>0.29978800000000028</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>201</v>
       </c>
@@ -6420,7 +6430,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>203</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>205</v>
       </c>
@@ -6480,7 +6490,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>207</v>
       </c>
@@ -6510,7 +6520,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>209</v>
       </c>
@@ -6540,7 +6550,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>211</v>
       </c>
@@ -6570,7 +6580,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>215</v>
       </c>
@@ -6630,7 +6640,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>217</v>
       </c>
@@ -6660,7 +6670,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>219</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>221</v>
       </c>
@@ -6720,7 +6730,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>223</v>
       </c>
@@ -6750,7 +6760,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>225</v>
       </c>
@@ -6780,7 +6790,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>227</v>
       </c>
@@ -6810,7 +6820,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>229</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>231</v>
       </c>
@@ -6870,7 +6880,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>233</v>
       </c>
@@ -6900,7 +6910,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>235</v>
       </c>
@@ -6930,7 +6940,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>237</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -6990,7 +7000,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>241</v>
       </c>
@@ -7020,7 +7030,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>243</v>
       </c>
@@ -7050,7 +7060,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>245</v>
       </c>
@@ -7080,7 +7090,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>247</v>
       </c>
@@ -7110,7 +7120,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>249</v>
       </c>
@@ -7140,7 +7150,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>251</v>
       </c>
@@ -7170,7 +7180,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>253</v>
       </c>
@@ -7200,7 +7210,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>255</v>
       </c>
@@ -7230,7 +7240,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>257</v>
       </c>
@@ -7260,7 +7270,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>259</v>
       </c>
@@ -7290,7 +7300,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>261</v>
       </c>
@@ -7320,7 +7330,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>263</v>
       </c>
@@ -7350,7 +7360,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>265</v>
       </c>
@@ -7380,7 +7390,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>267</v>
       </c>
@@ -7410,7 +7420,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>269</v>
       </c>
@@ -7440,7 +7450,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>271</v>
       </c>
@@ -7470,7 +7480,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>273</v>
       </c>
@@ -7500,7 +7510,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>275</v>
       </c>
@@ -7530,7 +7540,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>277</v>
       </c>
@@ -7560,7 +7570,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>279</v>
       </c>
@@ -7590,7 +7600,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>281</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>283</v>
       </c>
@@ -7650,7 +7660,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>285</v>
       </c>
@@ -7680,7 +7690,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>287</v>
       </c>
@@ -7710,7 +7720,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>289</v>
       </c>
@@ -7740,7 +7750,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>291</v>
       </c>
@@ -7770,7 +7780,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>293</v>
       </c>
@@ -7800,7 +7810,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>295</v>
       </c>
@@ -7830,7 +7840,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>297</v>
       </c>
@@ -7860,7 +7870,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>299</v>
       </c>
@@ -7890,7 +7900,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>301</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>303</v>
       </c>
@@ -7950,7 +7960,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>305</v>
       </c>
@@ -7980,7 +7990,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>307</v>
       </c>
@@ -8010,7 +8020,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>309</v>
       </c>
@@ -8040,7 +8050,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>311</v>
       </c>
@@ -8070,7 +8080,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>313</v>
       </c>
@@ -8100,7 +8110,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>315</v>
       </c>
@@ -8130,7 +8140,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>317</v>
       </c>
@@ -8160,7 +8170,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>319</v>
       </c>
@@ -8190,7 +8200,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>321</v>
       </c>
@@ -8220,7 +8230,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>323</v>
       </c>
@@ -8250,7 +8260,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>325</v>
       </c>
@@ -8280,7 +8290,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>327</v>
       </c>
@@ -8310,7 +8320,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>329</v>
       </c>
@@ -8340,7 +8350,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>331</v>
       </c>
@@ -8370,7 +8380,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>333</v>
       </c>
@@ -8400,7 +8410,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>335</v>
       </c>
@@ -8430,7 +8440,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>337</v>
       </c>
@@ -8460,7 +8470,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>339</v>
       </c>
@@ -8490,7 +8500,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>341</v>
       </c>
@@ -8520,7 +8530,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>343</v>
       </c>
@@ -8550,7 +8560,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>345</v>
       </c>
@@ -8580,7 +8590,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>347</v>
       </c>
@@ -8610,7 +8620,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>349</v>
       </c>
@@ -8640,7 +8650,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>351</v>
       </c>
@@ -8670,7 +8680,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>353</v>
       </c>
@@ -8700,7 +8710,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>355</v>
       </c>
@@ -8730,7 +8740,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>357</v>
       </c>
@@ -8760,7 +8770,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>359</v>
       </c>
@@ -8790,7 +8800,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>361</v>
       </c>
@@ -8820,7 +8830,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>363</v>
       </c>
@@ -8850,7 +8860,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>365</v>
       </c>
@@ -8880,7 +8890,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>367</v>
       </c>
@@ -8910,7 +8920,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>369</v>
       </c>
@@ -8940,7 +8950,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>371</v>
       </c>
@@ -8970,7 +8980,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>373</v>
       </c>
@@ -9000,7 +9010,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>375</v>
       </c>
@@ -9030,7 +9040,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>377</v>
       </c>
@@ -9060,7 +9070,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>379</v>
       </c>
@@ -9090,7 +9100,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>381</v>
       </c>
@@ -9120,7 +9130,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>383</v>
       </c>
@@ -9150,7 +9160,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>385</v>
       </c>
@@ -9180,7 +9190,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>387</v>
       </c>
@@ -9210,7 +9220,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>389</v>
       </c>
@@ -9240,7 +9250,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>391</v>
       </c>
@@ -9270,7 +9280,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>393</v>
       </c>
@@ -9300,7 +9310,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>395</v>
       </c>
@@ -9330,7 +9340,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>397</v>
       </c>
@@ -9360,7 +9370,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>399</v>
       </c>
@@ -9390,7 +9400,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>401</v>
       </c>
@@ -9420,7 +9430,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
@@ -9450,7 +9460,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>405</v>
       </c>
@@ -9480,7 +9490,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>407</v>
       </c>
@@ -9510,7 +9520,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>409</v>
       </c>
@@ -9540,7 +9550,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>411</v>
       </c>
@@ -9570,7 +9580,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>413</v>
       </c>
@@ -9600,7 +9610,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>415</v>
       </c>
@@ -9630,7 +9640,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>417</v>
       </c>
@@ -9660,7 +9670,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>419</v>
       </c>
@@ -9690,7 +9700,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>421</v>
       </c>
@@ -9720,7 +9730,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>423</v>
       </c>
@@ -9750,7 +9760,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>425</v>
       </c>
@@ -9780,7 +9790,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>427</v>
       </c>
@@ -9810,7 +9820,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>429</v>
       </c>
@@ -9840,7 +9850,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>431</v>
       </c>
@@ -9870,7 +9880,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>433</v>
       </c>
@@ -9900,7 +9910,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>435</v>
       </c>
@@ -9930,7 +9940,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>437</v>
       </c>
@@ -9960,7 +9970,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>439</v>
       </c>
@@ -9990,7 +10000,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>441</v>
       </c>
@@ -10020,7 +10030,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>443</v>
       </c>
@@ -10050,7 +10060,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>445</v>
       </c>
@@ -10080,7 +10090,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>447</v>
       </c>
@@ -10110,7 +10120,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>449</v>
       </c>
@@ -10140,7 +10150,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>451</v>
       </c>
@@ -10170,7 +10180,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>453</v>
       </c>
@@ -10200,7 +10210,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>455</v>
       </c>
@@ -10230,7 +10240,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>457</v>
       </c>
@@ -10260,7 +10270,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>459</v>
       </c>
@@ -10290,7 +10300,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>461</v>
       </c>
@@ -10320,7 +10330,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>463</v>
       </c>
@@ -10350,7 +10360,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>465</v>
       </c>
@@ -10380,7 +10390,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>467</v>
       </c>
@@ -10410,7 +10420,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>469</v>
       </c>
@@ -10440,7 +10450,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>471</v>
       </c>
@@ -10470,7 +10480,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>473</v>
       </c>
@@ -10500,7 +10510,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>475</v>
       </c>
@@ -10530,7 +10540,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>477</v>
       </c>
@@ -10560,7 +10570,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>479</v>
       </c>
@@ -10590,7 +10600,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>481</v>
       </c>
@@ -10620,7 +10630,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>483</v>
       </c>
@@ -10650,7 +10660,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>485</v>
       </c>
@@ -10680,7 +10690,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>487</v>
       </c>
@@ -10710,7 +10720,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>489</v>
       </c>
@@ -10740,7 +10750,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>491</v>
       </c>
@@ -10770,7 +10780,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>493</v>
       </c>
@@ -10800,7 +10810,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>495</v>
       </c>
@@ -10830,7 +10840,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>497</v>
       </c>
@@ -10860,7 +10870,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>499</v>
       </c>
@@ -10890,7 +10900,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>501</v>
       </c>
@@ -10920,7 +10930,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>503</v>
       </c>
@@ -10950,7 +10960,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>505</v>
       </c>
@@ -10980,7 +10990,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>507</v>
       </c>
@@ -11010,7 +11020,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>509</v>
       </c>
@@ -11040,7 +11050,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>511</v>
       </c>
@@ -11070,7 +11080,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>513</v>
       </c>
@@ -11100,7 +11110,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>515</v>
       </c>
@@ -11130,7 +11140,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>517</v>
       </c>
@@ -11160,7 +11170,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>519</v>
       </c>
@@ -11190,7 +11200,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>521</v>
       </c>
@@ -11220,7 +11230,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>523</v>
       </c>
@@ -11250,7 +11260,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>525</v>
       </c>
@@ -11280,7 +11290,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>527</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>529</v>
       </c>
@@ -11340,7 +11350,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>531</v>
       </c>
@@ -11370,7 +11380,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>533</v>
       </c>
@@ -11400,7 +11410,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>535</v>
       </c>
@@ -11430,7 +11440,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>537</v>
       </c>
@@ -11460,7 +11470,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>539</v>
       </c>
@@ -11490,7 +11500,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>541</v>
       </c>
@@ -11520,7 +11530,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>543</v>
       </c>
@@ -11550,7 +11560,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>545</v>
       </c>
@@ -11580,7 +11590,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>547</v>
       </c>
@@ -11610,7 +11620,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>549</v>
       </c>
@@ -11640,7 +11650,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>551</v>
       </c>
@@ -11670,7 +11680,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>553</v>
       </c>
@@ -11700,7 +11710,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>555</v>
       </c>
@@ -11730,7 +11740,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>557</v>
       </c>
@@ -11760,7 +11770,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>559</v>
       </c>
@@ -11790,7 +11800,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>561</v>
       </c>
@@ -11820,7 +11830,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>563</v>
       </c>
@@ -11850,7 +11860,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>565</v>
       </c>
@@ -11880,7 +11890,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>567</v>
       </c>
@@ -11910,7 +11920,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>569</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>571</v>
       </c>
@@ -11970,7 +11980,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>573</v>
       </c>
@@ -12000,7 +12010,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>575</v>
       </c>
@@ -12030,7 +12040,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>577</v>
       </c>
@@ -12060,7 +12070,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>579</v>
       </c>
@@ -12090,7 +12100,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>581</v>
       </c>
@@ -12120,7 +12130,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>583</v>
       </c>
@@ -12150,7 +12160,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>585</v>
       </c>
@@ -12180,7 +12190,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>587</v>
       </c>
@@ -12210,7 +12220,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>589</v>
       </c>
@@ -12240,7 +12250,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>591</v>
       </c>
@@ -12270,7 +12280,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>593</v>
       </c>
@@ -12300,7 +12310,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>595</v>
       </c>
@@ -12330,7 +12340,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>597</v>
       </c>
@@ -12360,7 +12370,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>599</v>
       </c>
@@ -12390,7 +12400,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>601</v>
       </c>
@@ -12420,7 +12430,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>603</v>
       </c>
@@ -12450,7 +12460,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>605</v>
       </c>
@@ -12480,7 +12490,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>607</v>
       </c>
@@ -12510,7 +12520,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>609</v>
       </c>
@@ -12540,7 +12550,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>611</v>
       </c>
@@ -12570,7 +12580,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>613</v>
       </c>
@@ -12600,7 +12610,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>615</v>
       </c>
@@ -12630,7 +12640,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>617</v>
       </c>
@@ -12660,7 +12670,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>619</v>
       </c>
@@ -12690,7 +12700,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>621</v>
       </c>
@@ -12720,7 +12730,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>623</v>
       </c>
@@ -12750,7 +12760,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>625</v>
       </c>
@@ -12780,7 +12790,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>627</v>
       </c>
@@ -12810,7 +12820,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>629</v>
       </c>
@@ -12840,7 +12850,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>631</v>
       </c>
@@ -12870,7 +12880,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>633</v>
       </c>
@@ -12900,7 +12910,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>635</v>
       </c>
@@ -12930,7 +12940,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>637</v>
       </c>
@@ -12960,7 +12970,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>639</v>
       </c>
@@ -12990,7 +13000,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>641</v>
       </c>
@@ -13020,7 +13030,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>643</v>
       </c>
@@ -13050,7 +13060,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>645</v>
       </c>
@@ -13080,7 +13090,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>647</v>
       </c>
@@ -13110,7 +13120,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>649</v>
       </c>
@@ -13140,7 +13150,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>651</v>
       </c>
@@ -13170,7 +13180,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>653</v>
       </c>
@@ -13200,7 +13210,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>655</v>
       </c>
@@ -13230,7 +13240,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>657</v>
       </c>
@@ -13260,7 +13270,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>659</v>
       </c>
@@ -13290,7 +13300,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>661</v>
       </c>
@@ -13320,7 +13330,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>663</v>
       </c>
@@ -13350,7 +13360,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>665</v>
       </c>
@@ -13380,7 +13390,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>667</v>
       </c>
@@ -13410,7 +13420,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>669</v>
       </c>
@@ -13440,7 +13450,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>671</v>
       </c>
@@ -13470,7 +13480,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>673</v>
       </c>
@@ -13500,7 +13510,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>675</v>
       </c>
@@ -13530,7 +13540,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>677</v>
       </c>
@@ -13560,7 +13570,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>679</v>
       </c>
@@ -13590,7 +13600,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>681</v>
       </c>
@@ -13620,7 +13630,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>683</v>
       </c>
@@ -13650,7 +13660,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>685</v>
       </c>
@@ -13680,7 +13690,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>687</v>
       </c>
@@ -13710,7 +13720,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>689</v>
       </c>
@@ -13740,7 +13750,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>691</v>
       </c>
@@ -13770,7 +13780,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>693</v>
       </c>
@@ -13800,7 +13810,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>695</v>
       </c>
@@ -13830,7 +13840,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>697</v>
       </c>
@@ -13860,7 +13870,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>699</v>
       </c>
@@ -13890,7 +13900,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>701</v>
       </c>
@@ -13920,7 +13930,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>703</v>
       </c>
@@ -13950,7 +13960,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>705</v>
       </c>
@@ -13980,7 +13990,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>707</v>
       </c>
@@ -14010,7 +14020,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>709</v>
       </c>
@@ -14040,7 +14050,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>711</v>
       </c>
@@ -14070,7 +14080,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>713</v>
       </c>
@@ -14100,7 +14110,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>715</v>
       </c>
@@ -14130,7 +14140,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>717</v>
       </c>
@@ -14160,7 +14170,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>719</v>
       </c>
@@ -14190,7 +14200,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>721</v>
       </c>
@@ -14220,7 +14230,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>723</v>
       </c>
@@ -14250,7 +14260,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>725</v>
       </c>
@@ -14280,7 +14290,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>727</v>
       </c>
@@ -14310,7 +14320,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>729</v>
       </c>
@@ -14340,7 +14350,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>731</v>
       </c>
@@ -14370,7 +14380,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>733</v>
       </c>
@@ -14400,7 +14410,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>735</v>
       </c>
@@ -14430,7 +14440,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>737</v>
       </c>
@@ -14460,7 +14470,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>739</v>
       </c>
@@ -14490,7 +14500,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>741</v>
       </c>
@@ -14520,7 +14530,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>743</v>
       </c>
@@ -14550,7 +14560,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>745</v>
       </c>
@@ -14580,7 +14590,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>747</v>
       </c>
@@ -14610,7 +14620,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>749</v>
       </c>
@@ -14640,7 +14650,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>751</v>
       </c>
@@ -14670,7 +14680,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>753</v>
       </c>
@@ -14700,7 +14710,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>755</v>
       </c>
@@ -14730,7 +14740,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>757</v>
       </c>
@@ -14760,7 +14770,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>759</v>
       </c>
@@ -14790,7 +14800,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>761</v>
       </c>
@@ -14820,7 +14830,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>763</v>
       </c>
@@ -14850,7 +14860,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>765</v>
       </c>
@@ -14880,7 +14890,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>767</v>
       </c>
@@ -14910,7 +14920,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>769</v>
       </c>
@@ -14940,7 +14950,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>771</v>
       </c>
@@ -14970,7 +14980,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>773</v>
       </c>
@@ -15000,7 +15010,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>775</v>
       </c>
@@ -15030,7 +15040,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>777</v>
       </c>
@@ -15060,7 +15070,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>779</v>
       </c>
@@ -15090,7 +15100,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>781</v>
       </c>
@@ -15120,7 +15130,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>783</v>
       </c>
@@ -15150,7 +15160,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>785</v>
       </c>
@@ -15180,7 +15190,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>787</v>
       </c>
@@ -15210,7 +15220,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>789</v>
       </c>
@@ -15240,7 +15250,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>791</v>
       </c>
@@ -15270,7 +15280,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>793</v>
       </c>
@@ -15300,7 +15310,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>795</v>
       </c>
@@ -15330,7 +15340,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>797</v>
       </c>
@@ -15360,7 +15370,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>799</v>
       </c>
@@ -15390,7 +15400,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>801</v>
       </c>
@@ -15420,7 +15430,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>803</v>
       </c>
@@ -15450,7 +15460,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>805</v>
       </c>
@@ -15480,7 +15490,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>807</v>
       </c>
@@ -15510,7 +15520,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>809</v>
       </c>
@@ -15540,7 +15550,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>811</v>
       </c>
@@ -15570,7 +15580,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>813</v>
       </c>
@@ -15600,7 +15610,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>815</v>
       </c>
@@ -15630,7 +15640,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>817</v>
       </c>
@@ -15660,7 +15670,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>819</v>
       </c>
@@ -15690,7 +15700,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>821</v>
       </c>
@@ -15720,7 +15730,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>823</v>
       </c>
@@ -15750,7 +15760,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>825</v>
       </c>
@@ -15780,7 +15790,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>827</v>
       </c>
@@ -15810,7 +15820,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>829</v>
       </c>
@@ -15840,7 +15850,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>831</v>
       </c>
@@ -15870,7 +15880,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>833</v>
       </c>
@@ -15900,7 +15910,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>835</v>
       </c>
@@ -15930,7 +15940,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>837</v>
       </c>
@@ -15960,7 +15970,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>839</v>
       </c>
@@ -15990,7 +16000,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>841</v>
       </c>
@@ -16020,7 +16030,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>843</v>
       </c>
@@ -16050,7 +16060,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>845</v>
       </c>
@@ -16080,7 +16090,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>847</v>
       </c>
@@ -16110,7 +16120,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>849</v>
       </c>
@@ -16140,7 +16150,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>851</v>
       </c>
@@ -16170,7 +16180,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>853</v>
       </c>
@@ -16200,7 +16210,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>855</v>
       </c>
@@ -16230,7 +16240,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>857</v>
       </c>
@@ -16260,7 +16270,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>859</v>
       </c>
@@ -16290,7 +16300,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>861</v>
       </c>
@@ -16320,7 +16330,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>863</v>
       </c>
@@ -16350,7 +16360,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>865</v>
       </c>
@@ -16380,7 +16390,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>867</v>
       </c>
@@ -16410,7 +16420,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>869</v>
       </c>
@@ -16440,7 +16450,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>871</v>
       </c>
@@ -16470,7 +16480,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>873</v>
       </c>
@@ -16500,7 +16510,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>875</v>
       </c>
@@ -16530,7 +16540,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>877</v>
       </c>
@@ -16560,7 +16570,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>879</v>
       </c>
@@ -16590,7 +16600,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>881</v>
       </c>
@@ -16620,7 +16630,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>883</v>
       </c>
@@ -16650,7 +16660,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>885</v>
       </c>
@@ -16680,7 +16690,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>887</v>
       </c>
@@ -16710,7 +16720,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>889</v>
       </c>
@@ -16740,7 +16750,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>891</v>
       </c>
@@ -16770,7 +16780,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>893</v>
       </c>
@@ -16800,7 +16810,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>895</v>
       </c>
@@ -16830,7 +16840,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>897</v>
       </c>
@@ -16860,7 +16870,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>899</v>
       </c>
@@ -16890,7 +16900,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>901</v>
       </c>
@@ -16920,7 +16930,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>903</v>
       </c>
@@ -16950,7 +16960,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>905</v>
       </c>
@@ -16980,7 +16990,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>907</v>
       </c>
@@ -17010,7 +17020,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>909</v>
       </c>
@@ -17040,7 +17050,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>911</v>
       </c>
@@ -17070,7 +17080,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>913</v>
       </c>
@@ -17100,7 +17110,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>915</v>
       </c>
@@ -17130,7 +17140,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>917</v>
       </c>
@@ -17160,7 +17170,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>919</v>
       </c>
@@ -17190,7 +17200,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>921</v>
       </c>
@@ -17220,7 +17230,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>923</v>
       </c>
@@ -17250,7 +17260,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>925</v>
       </c>
@@ -17280,7 +17290,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>927</v>
       </c>
@@ -17310,7 +17320,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>929</v>
       </c>
@@ -17340,7 +17350,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>931</v>
       </c>
@@ -17370,7 +17380,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>933</v>
       </c>
@@ -17400,7 +17410,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>935</v>
       </c>
@@ -17430,7 +17440,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>937</v>
       </c>
@@ -17460,7 +17470,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>939</v>
       </c>
@@ -17490,7 +17500,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>941</v>
       </c>
@@ -17520,7 +17530,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>943</v>
       </c>
@@ -17550,7 +17560,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>945</v>
       </c>
@@ -17580,7 +17590,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>947</v>
       </c>
@@ -17610,7 +17620,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>949</v>
       </c>
@@ -17640,7 +17650,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>951</v>
       </c>
@@ -17670,7 +17680,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>953</v>
       </c>
@@ -17700,7 +17710,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>955</v>
       </c>
@@ -17730,7 +17740,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>957</v>
       </c>
@@ -17760,7 +17770,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>959</v>
       </c>
@@ -17790,7 +17800,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>961</v>
       </c>
@@ -17820,7 +17830,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>963</v>
       </c>
@@ -17850,7 +17860,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>965</v>
       </c>
@@ -17880,7 +17890,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>967</v>
       </c>
@@ -17910,7 +17920,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>969</v>
       </c>
@@ -17940,7 +17950,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>971</v>
       </c>
@@ -17970,7 +17980,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>973</v>
       </c>
@@ -18000,7 +18010,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>975</v>
       </c>
@@ -18030,7 +18040,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>977</v>
       </c>
@@ -18060,7 +18070,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>979</v>
       </c>
@@ -18090,7 +18100,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>981</v>
       </c>
@@ -18120,7 +18130,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>983</v>
       </c>
@@ -18150,7 +18160,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>985</v>
       </c>
@@ -18180,7 +18190,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>987</v>
       </c>
@@ -18210,7 +18220,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>989</v>
       </c>
@@ -18240,7 +18250,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>991</v>
       </c>
@@ -18270,7 +18280,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>993</v>
       </c>
@@ -18300,7 +18310,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>995</v>
       </c>
@@ -18330,7 +18340,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>997</v>
       </c>
@@ -18360,7 +18370,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>999</v>
       </c>
@@ -18390,7 +18400,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1001</v>
       </c>
@@ -18420,7 +18430,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1003</v>
       </c>
@@ -18450,7 +18460,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1005</v>
       </c>
@@ -18480,7 +18490,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1007</v>
       </c>
@@ -18510,7 +18520,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1009</v>
       </c>
@@ -18540,7 +18550,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1011</v>
       </c>
@@ -18570,7 +18580,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1013</v>
       </c>
@@ -18600,7 +18610,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>1015</v>
       </c>
@@ -18630,7 +18640,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>1017</v>
       </c>
@@ -18660,7 +18670,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>1019</v>
       </c>
@@ -18690,7 +18700,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>1021</v>
       </c>
@@ -18720,7 +18730,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1023</v>
       </c>
@@ -18750,7 +18760,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1025</v>
       </c>
@@ -18780,7 +18790,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>1027</v>
       </c>
@@ -18810,7 +18820,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>1029</v>
       </c>
@@ -18840,7 +18850,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1031</v>
       </c>
@@ -18870,7 +18880,7 @@
         <v>0.29978800000000005</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>1033</v>
       </c>
@@ -18900,7 +18910,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>1035</v>
       </c>
@@ -18930,7 +18940,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>1037</v>
       </c>
@@ -18960,7 +18970,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>1039</v>
       </c>
@@ -18990,7 +19000,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>1041</v>
       </c>
@@ -19020,7 +19030,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>1043</v>
       </c>
@@ -19050,7 +19060,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>1045</v>
       </c>
@@ -19080,7 +19090,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>1047</v>
       </c>
@@ -19110,7 +19120,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>1049</v>
       </c>
@@ -19140,7 +19150,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>1051</v>
       </c>
@@ -19170,7 +19180,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>1053</v>
       </c>
@@ -19200,7 +19210,7 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>1055</v>
       </c>
@@ -19230,1465 +19240,1465 @@
         <v>0.29978800000000017</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
       <c r="G616" s="2"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
       <c r="G617" s="2"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
       <c r="G618" s="2"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
       <c r="G619" s="2"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
       <c r="G620" s="2"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
       <c r="G635" s="2"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
       <c r="G636" s="2"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
       <c r="G638" s="2"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
       <c r="G639" s="2"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
       <c r="G641" s="2"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
       <c r="G642" s="2"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
       <c r="G648" s="2"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
       <c r="G680" s="2"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
       <c r="G684" s="2"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
       <c r="G686" s="2"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
       <c r="G687" s="2"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
       <c r="G692" s="2"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
       <c r="G696" s="2"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
       <c r="G697" s="2"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
       <c r="G699" s="2"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
       <c r="G700" s="2"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
       <c r="G701" s="2"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
       <c r="G702" s="2"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
       <c r="G703" s="2"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
       <c r="G705" s="2"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
       <c r="G708" s="2"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
       <c r="G719" s="2"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
       <c r="G724" s="2"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
       <c r="G725" s="2"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
